--- a/tipote-knowledge/manifest/resources_manifest.xlsx
+++ b/tipote-knowledge/manifest/resources_manifest.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="78">
   <si>
     <t>id</t>
   </si>
@@ -61,7 +61,7 @@
     <t>pdf</t>
   </si>
   <si>
-    <t>./content/40-templates-linkedin.docx</t>
+    <t>guides/40-templates-linkedin.docx</t>
   </si>
   <si>
     <t>LinkedIn</t>
@@ -94,7 +94,7 @@
     <t>docx</t>
   </si>
   <si>
-    <t>./content/111_accroches_emails.docx</t>
+    <t>guides/111_accroches_emails.docx</t>
   </si>
   <si>
     <t>Emails</t>
@@ -107,6 +107,145 @@
   </si>
   <si>
     <t>111 objets d'emails exemples pour créer des objets qui suscitent la curiosité et l'envie de cliquer pour ouvrir et lire l'email</t>
+  </si>
+  <si>
+    <t>templates_emails</t>
+  </si>
+  <si>
+    <t>emails copywrités</t>
+  </si>
+  <si>
+    <t>swipefile</t>
+  </si>
+  <si>
+    <t>xlsx</t>
+  </si>
+  <si>
+    <t>swipefiles/emails_copywrités.xlsx</t>
+  </si>
+  <si>
+    <t>redaction_emails</t>
+  </si>
+  <si>
+    <t>rédiger_emails</t>
+  </si>
+  <si>
+    <t>Liste de templates d'emails à utiliser pour vendre, convaincre</t>
+  </si>
+  <si>
+    <t>145_accroches_tunnels</t>
+  </si>
+  <si>
+    <t>145 accroches page de capture et page de vente</t>
+  </si>
+  <si>
+    <t>guides/145-accroches-tunnels.docx</t>
+  </si>
+  <si>
+    <t>Tunnels de vente</t>
+  </si>
+  <si>
+    <t>accroches</t>
+  </si>
+  <si>
+    <t>rédiger_accroche_tunnel</t>
+  </si>
+  <si>
+    <t>Liste d'accroches pour capturer l'attention et susciter l'envie de lire la suite de la page de capture ou page de vente</t>
+  </si>
+  <si>
+    <t>creer_page_capture_6_elements</t>
+  </si>
+  <si>
+    <t>Créer une page de capture qui convertit : 6 éléments décisifs</t>
+  </si>
+  <si>
+    <t>guides/Créer une page de capture qui convertit _ 6 éléments décisifs.docx</t>
+  </si>
+  <si>
+    <t>structure_page_catpure</t>
+  </si>
+  <si>
+    <t>rédiger_page_de_capture</t>
+  </si>
+  <si>
+    <t>Rédiger une page de capture qui convertit grâce à 6 éléments à intégrer</t>
+  </si>
+  <si>
+    <t>persona_creation</t>
+  </si>
+  <si>
+    <t>Créer un persona ou avatar client</t>
+  </si>
+  <si>
+    <t>framework</t>
+  </si>
+  <si>
+    <t>frameworks/persona_creation.docx</t>
+  </si>
+  <si>
+    <t>Copywriting</t>
+  </si>
+  <si>
+    <t>persona</t>
+  </si>
+  <si>
+    <t>créer_persona_user</t>
+  </si>
+  <si>
+    <t>Créer un persona ou avatar client vraiment utile pour tout le reste du copywriting et de la stratégie business</t>
+  </si>
+  <si>
+    <t>puces_promesses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Structures de puces promesses pour tunnels de vente, emails et posts </t>
+  </si>
+  <si>
+    <t>swipefiles/puces_promesses.docx</t>
+  </si>
+  <si>
+    <t>rédiger_puces_promesses</t>
+  </si>
+  <si>
+    <t>Utiliser ces structures et modèles de puces promesses pour convaincre plus facilement lors de la rédaction d'une page de capture, de vente ou email et posts réseaux sociaux</t>
+  </si>
+  <si>
+    <t>templates_pages_de_vente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEMPLATES PAGES DE VENTE
+</t>
+  </si>
+  <si>
+    <t>swipefiles/templates_pages_de_vente.docx</t>
+  </si>
+  <si>
+    <t>page_de_vente</t>
+  </si>
+  <si>
+    <t>rédiger_page_de_vente</t>
+  </si>
+  <si>
+    <t>Template à personnaliser pour rédiger des pages de ventes persuasives et convaintes</t>
+  </si>
+  <si>
+    <t>56_idees_newsletters</t>
+  </si>
+  <si>
+    <t>56 idées de newsletters</t>
+  </si>
+  <si>
+    <t>swipefiles/56_idees_newsletters.docx</t>
+  </si>
+  <si>
+    <t>newsletter</t>
+  </si>
+  <si>
+    <t>idées_newsletters</t>
+  </si>
+  <si>
+    <t>Trouver des idées de thèmes de newsletters intéressantes pour les inscrits d'une liste emails</t>
   </si>
 </sst>
 </file>
@@ -607,7 +746,9 @@
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
+      <c r="K3" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="L3" s="3" t="s">
         <v>31</v>
       </c>
@@ -627,18 +768,38 @@
       <c r="Z3" s="4"/>
     </row>
     <row r="4">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="A4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
+      <c r="K4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
@@ -655,18 +816,38 @@
       <c r="Z4" s="4"/>
     </row>
     <row r="5">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="A5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
+      <c r="K5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
@@ -683,18 +864,38 @@
       <c r="Z5" s="4"/>
     </row>
     <row r="6">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+      <c r="A6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
+      <c r="K6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
@@ -711,18 +912,38 @@
       <c r="Z6" s="4"/>
     </row>
     <row r="7">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="A7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
+      <c r="K7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
@@ -739,18 +960,38 @@
       <c r="Z7" s="4"/>
     </row>
     <row r="8">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="A8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
+      <c r="K8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
@@ -767,18 +1008,38 @@
       <c r="Z8" s="4"/>
     </row>
     <row r="9">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="A9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
+      <c r="K9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
@@ -795,18 +1056,38 @@
       <c r="Z9" s="4"/>
     </row>
     <row r="10">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+      <c r="A10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
+      <c r="K10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>

--- a/tipote-knowledge/manifest/resources_manifest.xlsx
+++ b/tipote-knowledge/manifest/resources_manifest.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="77">
   <si>
     <t>id</t>
   </si>
@@ -58,7 +58,7 @@
     <t>guide</t>
   </si>
   <si>
-    <t>pdf</t>
+    <t>docx</t>
   </si>
   <si>
     <t>guides/40-templates-linkedin.docx</t>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>111 accroches emails à copier coller</t>
-  </si>
-  <si>
-    <t>docx</t>
   </si>
   <si>
     <t>guides/111_accroches_emails.docx</t>
@@ -730,19 +727,19 @@
         <v>14</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -750,7 +747,7 @@
         <v>22</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
@@ -769,28 +766,28 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -798,7 +795,7 @@
         <v>22</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
@@ -817,28 +814,28 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -846,7 +843,7 @@
         <v>22</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
@@ -865,28 +862,28 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -894,7 +891,7 @@
         <v>22</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
@@ -913,28 +910,28 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -942,7 +939,7 @@
         <v>22</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
@@ -961,28 +958,28 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>63</v>
-      </c>
       <c r="F8" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -990,7 +987,7 @@
         <v>22</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
@@ -1009,28 +1006,28 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>34</v>
+      <c r="F9" s="3" t="s">
+        <v>56</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -1038,7 +1035,7 @@
         <v>22</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
@@ -1057,28 +1054,28 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>34</v>
+      <c r="F10" s="3" t="s">
+        <v>56</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -1086,7 +1083,7 @@
         <v>22</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>

--- a/tipote-knowledge/manifest/resources_manifest.xlsx
+++ b/tipote-knowledge/manifest/resources_manifest.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="102">
   <si>
     <t>id</t>
   </si>
@@ -243,6 +243,81 @@
   </si>
   <si>
     <t>Trouver des idées de thèmes de newsletters intéressantes pour les inscrits d'une liste emails</t>
+  </si>
+  <si>
+    <t>guide_lead_magnets</t>
+  </si>
+  <si>
+    <t>Guide complet pour créer des lead magnets</t>
+  </si>
+  <si>
+    <t>guides/guide-complet-lead-magnets.docx</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>lead_magnet</t>
+  </si>
+  <si>
+    <t>créer_lead_magnet</t>
+  </si>
+  <si>
+    <t>Trouver et créer un bon lead magnet selon son activité et le promouvoir efficacement  pour capturer des emails qualifiés</t>
+  </si>
+  <si>
+    <t>50_idees_lead_magnets</t>
+  </si>
+  <si>
+    <t>50 Idées de Lead Magnets</t>
+  </si>
+  <si>
+    <t>swipefiles/liste-idees-lead-magnets.docx</t>
+  </si>
+  <si>
+    <t>idées_lead_magnet</t>
+  </si>
+  <si>
+    <t>Trouver une bonne idée de lead magnet pour attirer les bons prospects</t>
+  </si>
+  <si>
+    <t>trouver_clients_reseaux_sociaux</t>
+  </si>
+  <si>
+    <t>Trouver des clients sur les réseaux sociaux</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>txt</t>
+  </si>
+  <si>
+    <t>notes/trouver_des_clients_reseaux_sociaux.txt</t>
+  </si>
+  <si>
+    <t>réseaux_sociaux</t>
+  </si>
+  <si>
+    <t>trouver_clients</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quelques insights pour trouver des clients sur les réseaux sociaux en infiltrant des groupes </t>
+  </si>
+  <si>
+    <t>astuces_promotion_lead_magnet</t>
+  </si>
+  <si>
+    <t>23 astuces redoutables pour promouvoir ton lead magnet</t>
+  </si>
+  <si>
+    <t>guide/astuces-promouvoir-lead-magnet.docx</t>
+  </si>
+  <si>
+    <t>promouvoir_lead_magnet</t>
+  </si>
+  <si>
+    <t>Astuces pour promouvoir son lead magnet et trouver des prospects de qualité</t>
   </si>
 </sst>
 </file>
@@ -1101,18 +1176,38 @@
       <c r="Z10" s="4"/>
     </row>
     <row r="11">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+      <c r="A11" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
+      <c r="K11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
@@ -1129,18 +1224,38 @@
       <c r="Z11" s="4"/>
     </row>
     <row r="12">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
+      <c r="A12" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
+      <c r="K12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
@@ -1157,18 +1272,38 @@
       <c r="Z12" s="4"/>
     </row>
     <row r="13">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+      <c r="A13" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>95</v>
+      </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
+      <c r="K13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
@@ -1185,18 +1320,38 @@
       <c r="Z13" s="4"/>
     </row>
     <row r="14">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
+      <c r="A14" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>100</v>
+      </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
+      <c r="K14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>

--- a/tipote-knowledge/manifest/resources_manifest.xlsx
+++ b/tipote-knowledge/manifest/resources_manifest.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="114">
   <si>
     <t>id</t>
   </si>
@@ -318,6 +318,43 @@
   </si>
   <si>
     <t>Astuces pour promouvoir son lead magnet et trouver des prospects de qualité</t>
+  </si>
+  <si>
+    <t>comment_trouver_des_clients</t>
+  </si>
+  <si>
+    <t>Comment trouver des clients</t>
+  </si>
+  <si>
+    <t>guide/Comment-trouver-des-clients-Guide.docx</t>
+  </si>
+  <si>
+    <t>prospection</t>
+  </si>
+  <si>
+    <t>comment_trouver_clients</t>
+  </si>
+  <si>
+    <t>Stratégies simples pour trouver des clients en partant de zéro</t>
+  </si>
+  <si>
+    <t>guide_reseaux_sociaux_communaute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUIDE COMPLET Réseaux Sociaux &amp; Communauté
+</t>
+  </si>
+  <si>
+    <t>guide/guide-reseaux-sociaux-communaute.docx</t>
+  </si>
+  <si>
+    <t>Réseaux Sociaux</t>
+  </si>
+  <si>
+    <t>développer_communauté_vendre_réseaux_sociaux</t>
+  </si>
+  <si>
+    <t>Conseils pour vendre sur les réseaux sociaux et développer une communauté de fans</t>
   </si>
 </sst>
 </file>
@@ -1368,18 +1405,38 @@
       <c r="Z14" s="4"/>
     </row>
     <row r="15">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
+      <c r="A15" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
+      <c r="K15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
@@ -1396,18 +1453,38 @@
       <c r="Z15" s="4"/>
     </row>
     <row r="16">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
+      <c r="A16" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>112</v>
+      </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
+      <c r="K16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>

--- a/tipote-knowledge/manifest/resources_manifest.xlsx
+++ b/tipote-knowledge/manifest/resources_manifest.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="126">
   <si>
     <t>id</t>
   </si>
@@ -355,6 +355,44 @@
   </si>
   <si>
     <t>Conseils pour vendre sur les réseaux sociaux et développer une communauté de fans</t>
+  </si>
+  <si>
+    <t>guide-growth-marketing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUIDE COMPLET GROWTH MARKETING &amp; GROWTH HACKING
+</t>
+  </si>
+  <si>
+    <t>guide/guide-growth-marketing.docx</t>
+  </si>
+  <si>
+    <t>growth_marketing</t>
+  </si>
+  <si>
+    <t>utiliser_techniques_growth_marketing</t>
+  </si>
+  <si>
+    <t>Comprendre et utiliser des techniques de Growth marketing pour améliorer ses stratégies</t>
+  </si>
+  <si>
+    <t>guide-gamification-marketing.docx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUIDE COMPLET GAMIFICATION MARKETING
+</t>
+  </si>
+  <si>
+    <t>guide/guide-gamification-marketing.docx</t>
+  </si>
+  <si>
+    <t>gamification</t>
+  </si>
+  <si>
+    <t>gamifier_son_marketing</t>
+  </si>
+  <si>
+    <t>Comprendre et utiliser les techniques de gamifications pour attirer plus de leads qualifiés et de clients</t>
   </si>
 </sst>
 </file>
@@ -1501,18 +1539,38 @@
       <c r="Z16" s="4"/>
     </row>
     <row r="17">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
+      <c r="A17" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>118</v>
+      </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
+      <c r="K17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
@@ -1529,18 +1587,38 @@
       <c r="Z17" s="4"/>
     </row>
     <row r="18">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
+      <c r="A18" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>124</v>
+      </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
+      <c r="K18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>125</v>
+      </c>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>

--- a/tipote-knowledge/manifest/resources_manifest.xlsx
+++ b/tipote-knowledge/manifest/resources_manifest.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="139">
   <si>
     <t>id</t>
   </si>
@@ -376,7 +376,7 @@
     <t>Comprendre et utiliser des techniques de Growth marketing pour améliorer ses stratégies</t>
   </si>
   <si>
-    <t>guide-gamification-marketing.docx</t>
+    <t>guide-gamification-marketing</t>
   </si>
   <si>
     <t xml:space="preserve">GUIDE COMPLET GAMIFICATION MARKETING
@@ -393,6 +393,45 @@
   </si>
   <si>
     <t>Comprendre et utiliser les techniques de gamifications pour attirer plus de leads qualifiés et de clients</t>
+  </si>
+  <si>
+    <t>guide_création_formations_qualitatives</t>
+  </si>
+  <si>
+    <t>Guide création de formations qualitatives</t>
+  </si>
+  <si>
+    <t>guide/guide_création_formations_qualitatives.docx</t>
+  </si>
+  <si>
+    <t>Contenu</t>
+  </si>
+  <si>
+    <t>formation</t>
+  </si>
+  <si>
+    <t>créer_formation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Créer des formations très qualitatives dans n'importe quelle niche </t>
+  </si>
+  <si>
+    <t>guide-linkedin</t>
+  </si>
+  <si>
+    <t>GUIDE STRATÉGIQUE LINKEDIN</t>
+  </si>
+  <si>
+    <t>guide/guide-linkedin.docx</t>
+  </si>
+  <si>
+    <t>linkedin</t>
+  </si>
+  <si>
+    <t>stratégie_croissance</t>
+  </si>
+  <si>
+    <t>Adopter une stratégie de croissance efficace sur Linkedin</t>
   </si>
 </sst>
 </file>
@@ -1635,18 +1674,38 @@
       <c r="Z18" s="4"/>
     </row>
     <row r="19">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
+      <c r="A19" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>131</v>
+      </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
+      <c r="K19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>132</v>
+      </c>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
@@ -1663,18 +1722,38 @@
       <c r="Z19" s="4"/>
     </row>
     <row r="20">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
+      <c r="A20" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>137</v>
+      </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
+      <c r="K20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
